--- a/Diagrams/others/gantt1.xlsx
+++ b/Diagrams/others/gantt1.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>M</t>
   </si>
@@ -763,7 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,8 +813,6 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="25" xfId="4" applyBorder="1"/>
@@ -866,7 +865,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
@@ -898,6 +896,28 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="24" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="17" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="21" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -956,20 +976,7 @@
     <xf numFmtId="15" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="24" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -1268,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL115"/>
+  <dimension ref="A1:CZ115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1281,13 +1288,15 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
     <col min="5" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="90" width="4.33203125" customWidth="1"/>
-    <col min="91" max="104" width="3.109375" customWidth="1"/>
+    <col min="7" max="83" width="4.33203125" customWidth="1"/>
+    <col min="84" max="95" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.77734375" customWidth="1"/>
+    <col min="97" max="104" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="105" max="163" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="16.5" customHeight="1"/>
-    <row r="2" spans="1:90" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:104" ht="16.5" customHeight="1"/>
+    <row r="2" spans="1:104" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1366,133 +1375,151 @@
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
     </row>
-    <row r="3" spans="1:90" ht="26.4" customHeight="1">
+    <row r="3" spans="1:104" ht="26.4" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="130">
         <v>44494</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="102">
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121">
         <v>44501</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="102">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="121">
         <v>44508</v>
       </c>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="102">
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="121">
         <v>44515</v>
       </c>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="102">
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="121">
         <v>44522</v>
       </c>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="102">
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="121">
         <v>44529</v>
       </c>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="102">
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="121">
         <v>44536</v>
       </c>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="102">
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="123"/>
+      <c r="BD3" s="121">
         <v>44543</v>
       </c>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="104"/>
-      <c r="BK3" s="102">
+      <c r="BE3" s="122"/>
+      <c r="BF3" s="122"/>
+      <c r="BG3" s="122"/>
+      <c r="BH3" s="122"/>
+      <c r="BI3" s="122"/>
+      <c r="BJ3" s="123"/>
+      <c r="BK3" s="121">
         <v>44550</v>
       </c>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="104"/>
-      <c r="BR3" s="102">
+      <c r="BL3" s="122"/>
+      <c r="BM3" s="122"/>
+      <c r="BN3" s="122"/>
+      <c r="BO3" s="122"/>
+      <c r="BP3" s="122"/>
+      <c r="BQ3" s="123"/>
+      <c r="BR3" s="121">
         <v>44557</v>
       </c>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="104"/>
-      <c r="BY3" s="102">
+      <c r="BS3" s="122"/>
+      <c r="BT3" s="122"/>
+      <c r="BU3" s="122"/>
+      <c r="BV3" s="122"/>
+      <c r="BW3" s="122"/>
+      <c r="BX3" s="123"/>
+      <c r="BY3" s="121">
         <v>44564</v>
       </c>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="104"/>
-      <c r="CF3" s="102">
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="122"/>
+      <c r="CB3" s="122"/>
+      <c r="CC3" s="122"/>
+      <c r="CD3" s="122"/>
+      <c r="CE3" s="123"/>
+      <c r="CF3" s="121">
         <v>44571</v>
       </c>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="104"/>
+      <c r="CG3" s="122"/>
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="122"/>
+      <c r="CJ3" s="122"/>
+      <c r="CK3" s="122"/>
+      <c r="CL3" s="123"/>
+      <c r="CM3" s="121">
+        <v>44578</v>
+      </c>
+      <c r="CN3" s="122"/>
+      <c r="CO3" s="122"/>
+      <c r="CP3" s="122"/>
+      <c r="CQ3" s="122"/>
+      <c r="CR3" s="122"/>
+      <c r="CS3" s="123"/>
+      <c r="CT3" s="121">
+        <v>44585</v>
+      </c>
+      <c r="CU3" s="122"/>
+      <c r="CV3" s="122"/>
+      <c r="CW3" s="122"/>
+      <c r="CX3" s="122"/>
+      <c r="CY3" s="122"/>
+      <c r="CZ3" s="123"/>
     </row>
-    <row r="4" spans="1:90" ht="26.4" customHeight="1">
+    <row r="4" spans="1:104" ht="26.4" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="6">
         <v>25</v>
       </c>
@@ -1745,14 +1772,56 @@
       <c r="CL4" s="7">
         <v>16</v>
       </c>
+      <c r="CM4" s="2">
+        <v>17</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>18</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>19</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>20</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>21</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>22</v>
+      </c>
+      <c r="CS4" s="7">
+        <v>23</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>24</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>25</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>26</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>27</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>28</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>29</v>
+      </c>
+      <c r="CZ4" s="7">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" ht="18.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:104" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="98"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2005,32 +2074,74 @@
       <c r="CL5" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="CM5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" ht="26.4" customHeight="1">
+    <row r="6" spans="1:104" ht="26.4" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>44494</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>44497</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -2104,19 +2215,33 @@
       <c r="CI6" s="8"/>
       <c r="CJ6" s="8"/>
       <c r="CK6" s="8"/>
-      <c r="CL6" s="9"/>
+      <c r="CL6" s="29"/>
+      <c r="CM6" s="8"/>
+      <c r="CN6" s="8"/>
+      <c r="CO6" s="8"/>
+      <c r="CP6" s="8"/>
+      <c r="CQ6" s="8"/>
+      <c r="CR6" s="8"/>
+      <c r="CS6" s="29"/>
+      <c r="CT6" s="8"/>
+      <c r="CU6" s="8"/>
+      <c r="CV6" s="8"/>
+      <c r="CW6" s="8"/>
+      <c r="CX6" s="8"/>
+      <c r="CY6" s="8"/>
+      <c r="CZ6" s="9"/>
     </row>
-    <row r="7" spans="1:90" ht="26.25" customHeight="1">
+    <row r="7" spans="1:104" ht="26.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>44496</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>44503</v>
       </c>
       <c r="G7" s="24"/>
@@ -2125,12 +2250,12 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="62"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
       <c r="S7" s="10"/>
       <c r="T7" s="26"/>
       <c r="U7" s="27"/>
@@ -2202,25 +2327,39 @@
       <c r="CI7" s="10"/>
       <c r="CJ7" s="10"/>
       <c r="CK7" s="10"/>
-      <c r="CL7" s="12"/>
+      <c r="CL7" s="26"/>
+      <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
+      <c r="CQ7" s="10"/>
+      <c r="CR7" s="10"/>
+      <c r="CS7" s="26"/>
+      <c r="CT7" s="10"/>
+      <c r="CU7" s="10"/>
+      <c r="CV7" s="10"/>
+      <c r="CW7" s="10"/>
+      <c r="CX7" s="10"/>
+      <c r="CY7" s="10"/>
+      <c r="CZ7" s="12"/>
     </row>
-    <row r="8" spans="1:90" ht="26.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:104" ht="26.4" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="126"/>
+      <c r="D8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>44498</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>44208</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -2296,25 +2435,39 @@
       <c r="CE8" s="14"/>
       <c r="CF8" s="14"/>
       <c r="CG8" s="14"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="10"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
-      <c r="CL8" s="12"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14"/>
+      <c r="CU8" s="14"/>
+      <c r="CV8" s="15"/>
+      <c r="CW8" s="10"/>
+      <c r="CX8" s="10"/>
+      <c r="CY8" s="10"/>
+      <c r="CZ8" s="12"/>
     </row>
-    <row r="9" spans="1:90" ht="26.4" customHeight="1">
+    <row r="9" spans="1:104" ht="26.4" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>44498</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="54">
         <v>44503</v>
       </c>
       <c r="G9" s="24"/>
@@ -2327,10 +2480,10 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="64"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -2400,19 +2553,33 @@
       <c r="CI9" s="10"/>
       <c r="CJ9" s="10"/>
       <c r="CK9" s="10"/>
-      <c r="CL9" s="12"/>
+      <c r="CL9" s="26"/>
+      <c r="CM9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
+      <c r="CQ9" s="10"/>
+      <c r="CR9" s="10"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="10"/>
+      <c r="CU9" s="10"/>
+      <c r="CV9" s="10"/>
+      <c r="CW9" s="10"/>
+      <c r="CX9" s="10"/>
+      <c r="CY9" s="10"/>
+      <c r="CZ9" s="12"/>
     </row>
-    <row r="10" spans="1:90" ht="26.4" customHeight="1">
+    <row r="10" spans="1:104" ht="26.4" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="128"/>
+      <c r="D10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>44498</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="54">
         <v>44503</v>
       </c>
       <c r="G10" s="24"/>
@@ -2498,19 +2665,33 @@
       <c r="CI10" s="10"/>
       <c r="CJ10" s="10"/>
       <c r="CK10" s="10"/>
-      <c r="CL10" s="12"/>
+      <c r="CL10" s="26"/>
+      <c r="CM10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
+      <c r="CQ10" s="10"/>
+      <c r="CR10" s="10"/>
+      <c r="CS10" s="26"/>
+      <c r="CT10" s="10"/>
+      <c r="CU10" s="10"/>
+      <c r="CV10" s="10"/>
+      <c r="CW10" s="10"/>
+      <c r="CX10" s="10"/>
+      <c r="CY10" s="10"/>
+      <c r="CZ10" s="12"/>
     </row>
-    <row r="11" spans="1:90" ht="26.4" customHeight="1">
+    <row r="11" spans="1:104" ht="26.4" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>44498</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="54">
         <v>44503</v>
       </c>
       <c r="G11" s="24"/>
@@ -2527,8 +2708,8 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="62"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="60"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2596,19 +2777,33 @@
       <c r="CI11" s="10"/>
       <c r="CJ11" s="10"/>
       <c r="CK11" s="10"/>
-      <c r="CL11" s="12"/>
+      <c r="CL11" s="26"/>
+      <c r="CM11" s="10"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
+      <c r="CQ11" s="10"/>
+      <c r="CR11" s="10"/>
+      <c r="CS11" s="26"/>
+      <c r="CT11" s="10"/>
+      <c r="CU11" s="10"/>
+      <c r="CV11" s="10"/>
+      <c r="CW11" s="10"/>
+      <c r="CX11" s="10"/>
+      <c r="CY11" s="10"/>
+      <c r="CZ11" s="12"/>
     </row>
-    <row r="12" spans="1:90" ht="26.4" customHeight="1">
+    <row r="12" spans="1:104" ht="26.4" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="128"/>
+      <c r="D12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>44498</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="54">
         <v>44503</v>
       </c>
       <c r="G12" s="24"/>
@@ -2624,9 +2819,9 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="89"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="86"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -2694,42 +2889,56 @@
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
       <c r="CK12" s="10"/>
-      <c r="CL12" s="12"/>
+      <c r="CL12" s="26"/>
+      <c r="CM12" s="10"/>
+      <c r="CN12" s="10"/>
+      <c r="CO12" s="10"/>
+      <c r="CP12" s="10"/>
+      <c r="CQ12" s="10"/>
+      <c r="CR12" s="10"/>
+      <c r="CS12" s="26"/>
+      <c r="CT12" s="10"/>
+      <c r="CU12" s="10"/>
+      <c r="CV12" s="10"/>
+      <c r="CW12" s="10"/>
+      <c r="CX12" s="10"/>
+      <c r="CY12" s="10"/>
+      <c r="CZ12" s="12"/>
     </row>
-    <row r="13" spans="1:90" ht="26.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:104" ht="26.4" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>44498</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="54">
         <v>44510</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="86"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="27"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="73"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="70"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="18"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="71"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
       <c r="AB13" s="27"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -2792,21 +3001,35 @@
       <c r="CI13" s="10"/>
       <c r="CJ13" s="10"/>
       <c r="CK13" s="10"/>
-      <c r="CL13" s="12"/>
+      <c r="CL13" s="26"/>
+      <c r="CM13" s="10"/>
+      <c r="CN13" s="10"/>
+      <c r="CO13" s="10"/>
+      <c r="CP13" s="10"/>
+      <c r="CQ13" s="10"/>
+      <c r="CR13" s="10"/>
+      <c r="CS13" s="26"/>
+      <c r="CT13" s="10"/>
+      <c r="CU13" s="10"/>
+      <c r="CV13" s="10"/>
+      <c r="CW13" s="10"/>
+      <c r="CX13" s="10"/>
+      <c r="CY13" s="10"/>
+      <c r="CZ13" s="12"/>
     </row>
-    <row r="14" spans="1:90" ht="26.4" customHeight="1">
+    <row r="14" spans="1:104" ht="26.4" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="57">
         <v>44509</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="58">
         <v>44512</v>
       </c>
       <c r="G14" s="24"/>
@@ -2892,17 +3115,31 @@
       <c r="CI14" s="10"/>
       <c r="CJ14" s="10"/>
       <c r="CK14" s="10"/>
-      <c r="CL14" s="12"/>
+      <c r="CL14" s="26"/>
+      <c r="CM14" s="10"/>
+      <c r="CN14" s="10"/>
+      <c r="CO14" s="10"/>
+      <c r="CP14" s="10"/>
+      <c r="CQ14" s="10"/>
+      <c r="CR14" s="10"/>
+      <c r="CS14" s="26"/>
+      <c r="CT14" s="10"/>
+      <c r="CU14" s="10"/>
+      <c r="CV14" s="10"/>
+      <c r="CW14" s="10"/>
+      <c r="CX14" s="10"/>
+      <c r="CY14" s="10"/>
+      <c r="CZ14" s="12"/>
     </row>
-    <row r="15" spans="1:90" ht="26.4" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="48" t="s">
+    <row r="15" spans="1:104" ht="26.4" customHeight="1">
+      <c r="C15" s="113"/>
+      <c r="D15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="57">
         <v>44511</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <v>44518</v>
       </c>
       <c r="G15" s="24"/>
@@ -2940,13 +3177,13 @@
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
       <c r="AO15" s="35"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="115"/>
-      <c r="AR15" s="115"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="115"/>
-      <c r="AU15" s="115"/>
-      <c r="AV15" s="116"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="91"/>
       <c r="AW15" s="27"/>
       <c r="AX15" s="10"/>
       <c r="AY15" s="10"/>
@@ -2988,17 +3225,31 @@
       <c r="CI15" s="10"/>
       <c r="CJ15" s="10"/>
       <c r="CK15" s="10"/>
-      <c r="CL15" s="12"/>
+      <c r="CL15" s="26"/>
+      <c r="CM15" s="10"/>
+      <c r="CN15" s="10"/>
+      <c r="CO15" s="10"/>
+      <c r="CP15" s="10"/>
+      <c r="CQ15" s="10"/>
+      <c r="CR15" s="10"/>
+      <c r="CS15" s="26"/>
+      <c r="CT15" s="10"/>
+      <c r="CU15" s="10"/>
+      <c r="CV15" s="10"/>
+      <c r="CW15" s="10"/>
+      <c r="CX15" s="10"/>
+      <c r="CY15" s="10"/>
+      <c r="CZ15" s="12"/>
     </row>
-    <row r="16" spans="1:90" ht="26.4" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="48" t="s">
+    <row r="16" spans="1:104" ht="26.4" customHeight="1">
+      <c r="C16" s="113"/>
+      <c r="D16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="57">
         <v>44511</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="57">
         <v>44518</v>
       </c>
       <c r="G16" s="24"/>
@@ -3036,20 +3287,20 @@
       <c r="AM16" s="35"/>
       <c r="AN16" s="35"/>
       <c r="AO16" s="35"/>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="115"/>
-      <c r="AR16" s="115"/>
-      <c r="AS16" s="115"/>
-      <c r="AT16" s="115"/>
-      <c r="AU16" s="115"/>
-      <c r="AV16" s="115"/>
-      <c r="AW16" s="115"/>
-      <c r="AX16" s="115"/>
-      <c r="AY16" s="115"/>
-      <c r="AZ16" s="115"/>
-      <c r="BA16" s="115"/>
-      <c r="BB16" s="115"/>
-      <c r="BC16" s="116"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="90"/>
+      <c r="BA16" s="90"/>
+      <c r="BB16" s="90"/>
+      <c r="BC16" s="91"/>
       <c r="BD16" s="27"/>
       <c r="BE16" s="10"/>
       <c r="BF16" s="10"/>
@@ -3084,17 +3335,31 @@
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
       <c r="CK16" s="10"/>
-      <c r="CL16" s="12"/>
+      <c r="CL16" s="26"/>
+      <c r="CM16" s="10"/>
+      <c r="CN16" s="10"/>
+      <c r="CO16" s="10"/>
+      <c r="CP16" s="10"/>
+      <c r="CQ16" s="10"/>
+      <c r="CR16" s="10"/>
+      <c r="CS16" s="26"/>
+      <c r="CT16" s="10"/>
+      <c r="CU16" s="10"/>
+      <c r="CV16" s="10"/>
+      <c r="CW16" s="10"/>
+      <c r="CX16" s="10"/>
+      <c r="CY16" s="10"/>
+      <c r="CZ16" s="12"/>
     </row>
-    <row r="17" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="48" t="s">
+    <row r="17" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C17" s="113"/>
+      <c r="D17" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="57">
         <v>44513</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>44521</v>
       </c>
       <c r="G17" s="24"/>
@@ -3116,13 +3381,13 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="125"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="100"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
       <c r="AI17" s="36"/>
@@ -3139,20 +3404,20 @@
       <c r="AT17" s="36"/>
       <c r="AU17" s="36"/>
       <c r="AV17" s="36"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="114"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="88"/>
+      <c r="AZ17" s="88"/>
+      <c r="BA17" s="88"/>
+      <c r="BB17" s="88"/>
+      <c r="BC17" s="88"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="88"/>
+      <c r="BF17" s="88"/>
+      <c r="BG17" s="88"/>
+      <c r="BH17" s="88"/>
+      <c r="BI17" s="88"/>
+      <c r="BJ17" s="89"/>
       <c r="BK17" s="27"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
@@ -3180,17 +3445,31 @@
       <c r="CI17" s="10"/>
       <c r="CJ17" s="10"/>
       <c r="CK17" s="10"/>
-      <c r="CL17" s="12"/>
+      <c r="CL17" s="26"/>
+      <c r="CM17" s="10"/>
+      <c r="CN17" s="10"/>
+      <c r="CO17" s="10"/>
+      <c r="CP17" s="10"/>
+      <c r="CQ17" s="10"/>
+      <c r="CR17" s="10"/>
+      <c r="CS17" s="26"/>
+      <c r="CT17" s="10"/>
+      <c r="CU17" s="10"/>
+      <c r="CV17" s="10"/>
+      <c r="CW17" s="10"/>
+      <c r="CX17" s="10"/>
+      <c r="CY17" s="10"/>
+      <c r="CZ17" s="12"/>
     </row>
-    <row r="18" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="48" t="s">
+    <row r="18" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C18" s="113"/>
+      <c r="D18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="57">
         <v>44513</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>44521</v>
       </c>
       <c r="G18" s="24"/>
@@ -3235,20 +3514,20 @@
       <c r="AT18" s="36"/>
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="114"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="88"/>
+      <c r="AZ18" s="88"/>
+      <c r="BA18" s="88"/>
+      <c r="BB18" s="88"/>
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="88"/>
+      <c r="BF18" s="88"/>
+      <c r="BG18" s="88"/>
+      <c r="BH18" s="88"/>
+      <c r="BI18" s="88"/>
+      <c r="BJ18" s="89"/>
       <c r="BK18" s="27"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
@@ -3276,17 +3555,31 @@
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
       <c r="CK18" s="10"/>
-      <c r="CL18" s="12"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="10"/>
+      <c r="CN18" s="10"/>
+      <c r="CO18" s="10"/>
+      <c r="CP18" s="10"/>
+      <c r="CQ18" s="10"/>
+      <c r="CR18" s="10"/>
+      <c r="CS18" s="26"/>
+      <c r="CT18" s="10"/>
+      <c r="CU18" s="10"/>
+      <c r="CV18" s="10"/>
+      <c r="CW18" s="10"/>
+      <c r="CX18" s="10"/>
+      <c r="CY18" s="10"/>
+      <c r="CZ18" s="12"/>
     </row>
-    <row r="19" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="48" t="s">
+    <row r="19" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C19" s="113"/>
+      <c r="D19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="57">
         <v>44511</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>44521</v>
       </c>
       <c r="G19" s="24"/>
@@ -3324,20 +3617,20 @@
       <c r="AM19" s="35"/>
       <c r="AN19" s="35"/>
       <c r="AO19" s="35"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-      <c r="AT19" s="115"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
-      <c r="AX19" s="115"/>
-      <c r="AY19" s="115"/>
-      <c r="AZ19" s="115"/>
-      <c r="BA19" s="115"/>
-      <c r="BB19" s="115"/>
-      <c r="BC19" s="116"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="90"/>
+      <c r="BA19" s="90"/>
+      <c r="BB19" s="90"/>
+      <c r="BC19" s="91"/>
       <c r="BD19" s="27"/>
       <c r="BE19" s="10"/>
       <c r="BF19" s="10"/>
@@ -3372,17 +3665,31 @@
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
       <c r="CK19" s="10"/>
-      <c r="CL19" s="12"/>
+      <c r="CL19" s="26"/>
+      <c r="CM19" s="10"/>
+      <c r="CN19" s="10"/>
+      <c r="CO19" s="10"/>
+      <c r="CP19" s="10"/>
+      <c r="CQ19" s="10"/>
+      <c r="CR19" s="10"/>
+      <c r="CS19" s="26"/>
+      <c r="CT19" s="10"/>
+      <c r="CU19" s="10"/>
+      <c r="CV19" s="10"/>
+      <c r="CW19" s="10"/>
+      <c r="CX19" s="10"/>
+      <c r="CY19" s="10"/>
+      <c r="CZ19" s="12"/>
     </row>
-    <row r="20" spans="3:90" ht="26.4" customHeight="1" thickBot="1">
-      <c r="C20" s="95"/>
-      <c r="D20" s="48" t="s">
+    <row r="20" spans="3:104" ht="26.4" customHeight="1" thickBot="1">
+      <c r="C20" s="114"/>
+      <c r="D20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <v>44518</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>44523</v>
       </c>
       <c r="G20" s="24"/>
@@ -3429,20 +3736,20 @@
       <c r="AV20" s="36"/>
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="114"/>
+      <c r="AY20" s="88"/>
+      <c r="AZ20" s="88"/>
+      <c r="BA20" s="88"/>
+      <c r="BB20" s="88"/>
+      <c r="BC20" s="88"/>
+      <c r="BD20" s="88"/>
+      <c r="BE20" s="88"/>
+      <c r="BF20" s="88"/>
+      <c r="BG20" s="88"/>
+      <c r="BH20" s="88"/>
+      <c r="BI20" s="88"/>
+      <c r="BJ20" s="88"/>
+      <c r="BK20" s="88"/>
+      <c r="BL20" s="89"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
@@ -3468,19 +3775,33 @@
       <c r="CI20" s="10"/>
       <c r="CJ20" s="10"/>
       <c r="CK20" s="10"/>
-      <c r="CL20" s="12"/>
+      <c r="CL20" s="26"/>
+      <c r="CM20" s="10"/>
+      <c r="CN20" s="10"/>
+      <c r="CO20" s="10"/>
+      <c r="CP20" s="10"/>
+      <c r="CQ20" s="10"/>
+      <c r="CR20" s="10"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="10"/>
+      <c r="CU20" s="10"/>
+      <c r="CV20" s="10"/>
+      <c r="CW20" s="10"/>
+      <c r="CX20" s="10"/>
+      <c r="CY20" s="10"/>
+      <c r="CZ20" s="12"/>
     </row>
-    <row r="21" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C21" s="90" t="s">
+    <row r="21" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C21" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="75">
         <v>44518</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="75">
         <v>44521</v>
       </c>
       <c r="G21" s="24"/>
@@ -3521,17 +3842,17 @@
       <c r="AP21" s="27"/>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="82"/>
-      <c r="AV21" s="83"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="80"/>
       <c r="AW21" s="10"/>
       <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
-      <c r="AZ21" s="117"/>
-      <c r="BA21" s="118"/>
-      <c r="BB21" s="119"/>
-      <c r="BC21" s="120"/>
+      <c r="AZ21" s="92"/>
+      <c r="BA21" s="93"/>
+      <c r="BB21" s="94"/>
+      <c r="BC21" s="95"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
       <c r="BF21" s="10"/>
@@ -3566,17 +3887,31 @@
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
       <c r="CK21" s="10"/>
-      <c r="CL21" s="12"/>
+      <c r="CL21" s="26"/>
+      <c r="CM21" s="10"/>
+      <c r="CN21" s="10"/>
+      <c r="CO21" s="10"/>
+      <c r="CP21" s="10"/>
+      <c r="CQ21" s="10"/>
+      <c r="CR21" s="10"/>
+      <c r="CS21" s="26"/>
+      <c r="CT21" s="10"/>
+      <c r="CU21" s="10"/>
+      <c r="CV21" s="10"/>
+      <c r="CW21" s="10"/>
+      <c r="CX21" s="10"/>
+      <c r="CY21" s="10"/>
+      <c r="CZ21" s="12"/>
     </row>
-    <row r="22" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C22" s="91"/>
-      <c r="D22" s="49" t="s">
+    <row r="22" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C22" s="110"/>
+      <c r="D22" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="75">
         <v>44520</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="75">
         <v>44505</v>
       </c>
       <c r="G22" s="24"/>
@@ -3619,22 +3954,22 @@
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="82"/>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="80"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
       <c r="BB22" s="37"/>
       <c r="BC22" s="38"/>
-      <c r="BD22" s="118"/>
-      <c r="BE22" s="118"/>
-      <c r="BF22" s="118"/>
-      <c r="BG22" s="118"/>
-      <c r="BH22" s="118"/>
-      <c r="BI22" s="118"/>
-      <c r="BJ22" s="112"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="93"/>
+      <c r="BF22" s="93"/>
+      <c r="BG22" s="93"/>
+      <c r="BH22" s="93"/>
+      <c r="BI22" s="93"/>
+      <c r="BJ22" s="87"/>
       <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
@@ -3662,17 +3997,31 @@
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
       <c r="CK22" s="10"/>
-      <c r="CL22" s="12"/>
+      <c r="CL22" s="26"/>
+      <c r="CM22" s="10"/>
+      <c r="CN22" s="10"/>
+      <c r="CO22" s="10"/>
+      <c r="CP22" s="10"/>
+      <c r="CQ22" s="10"/>
+      <c r="CR22" s="10"/>
+      <c r="CS22" s="26"/>
+      <c r="CT22" s="10"/>
+      <c r="CU22" s="10"/>
+      <c r="CV22" s="10"/>
+      <c r="CW22" s="10"/>
+      <c r="CX22" s="10"/>
+      <c r="CY22" s="10"/>
+      <c r="CZ22" s="12"/>
     </row>
-    <row r="23" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C23" s="91"/>
-      <c r="D23" s="49" t="s">
+    <row r="23" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C23" s="110"/>
+      <c r="D23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="75">
         <v>44527</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="77">
         <v>44198</v>
       </c>
       <c r="G23" s="24"/>
@@ -3722,13 +4071,13 @@
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
       <c r="BA23" s="10"/>
-      <c r="BB23" s="64"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
+      <c r="BB23" s="62"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="61"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="61"/>
+      <c r="BG23" s="61"/>
+      <c r="BH23" s="61"/>
       <c r="BI23" s="37"/>
       <c r="BJ23" s="38"/>
       <c r="BK23" s="38"/>
@@ -3745,30 +4094,44 @@
       <c r="BV23" s="38"/>
       <c r="BW23" s="38"/>
       <c r="BX23" s="38"/>
-      <c r="BY23" s="38"/>
-      <c r="BZ23" s="38"/>
-      <c r="CA23" s="38"/>
-      <c r="CB23" s="38"/>
-      <c r="CC23" s="38"/>
-      <c r="CD23" s="38"/>
-      <c r="CE23" s="39"/>
+      <c r="BY23" s="27"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="10"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="10"/>
+      <c r="CE23" s="26"/>
       <c r="CF23" s="27"/>
       <c r="CG23" s="10"/>
       <c r="CH23" s="10"/>
       <c r="CI23" s="10"/>
       <c r="CJ23" s="10"/>
       <c r="CK23" s="10"/>
-      <c r="CL23" s="12"/>
+      <c r="CL23" s="26"/>
+      <c r="CM23" s="10"/>
+      <c r="CN23" s="10"/>
+      <c r="CO23" s="10"/>
+      <c r="CP23" s="10"/>
+      <c r="CQ23" s="10"/>
+      <c r="CR23" s="10"/>
+      <c r="CS23" s="26"/>
+      <c r="CT23" s="10"/>
+      <c r="CU23" s="10"/>
+      <c r="CV23" s="10"/>
+      <c r="CW23" s="10"/>
+      <c r="CX23" s="10"/>
+      <c r="CY23" s="10"/>
+      <c r="CZ23" s="12"/>
     </row>
-    <row r="24" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C24" s="91"/>
-      <c r="D24" s="49" t="s">
+    <row r="24" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C24" s="110"/>
+      <c r="D24" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="75">
         <v>44520</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="77">
         <v>44542</v>
       </c>
       <c r="G24" s="24"/>
@@ -3811,60 +4174,74 @@
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="40"/>
-      <c r="BD24" s="40"/>
-      <c r="BE24" s="40"/>
-      <c r="BF24" s="40"/>
-      <c r="BG24" s="40"/>
-      <c r="BH24" s="40"/>
-      <c r="BI24" s="40"/>
-      <c r="BJ24" s="40"/>
-      <c r="BK24" s="119"/>
-      <c r="BL24" s="119"/>
-      <c r="BM24" s="119"/>
-      <c r="BN24" s="119"/>
-      <c r="BO24" s="119"/>
-      <c r="BP24" s="119"/>
-      <c r="BQ24" s="120"/>
-      <c r="BR24" s="27"/>
-      <c r="BS24" s="10"/>
-      <c r="BT24" s="10"/>
-      <c r="BU24" s="10"/>
-      <c r="BV24" s="10"/>
-      <c r="BW24" s="10"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="27"/>
-      <c r="BZ24" s="10"/>
-      <c r="CA24" s="10"/>
-      <c r="CB24" s="10"/>
-      <c r="CC24" s="10"/>
-      <c r="CD24" s="10"/>
-      <c r="CE24" s="26"/>
-      <c r="CF24" s="27"/>
-      <c r="CG24" s="10"/>
-      <c r="CH24" s="10"/>
-      <c r="CI24" s="10"/>
-      <c r="CJ24" s="10"/>
-      <c r="CK24" s="10"/>
-      <c r="CL24" s="12"/>
+      <c r="AU24" s="79"/>
+      <c r="AV24" s="80"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="79"/>
+      <c r="BA24" s="79"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="93"/>
+      <c r="BM24" s="93"/>
+      <c r="BN24" s="93"/>
+      <c r="BO24" s="93"/>
+      <c r="BP24" s="93"/>
+      <c r="BQ24" s="93"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="93"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="93"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="93"/>
+      <c r="CB24" s="93"/>
+      <c r="CC24" s="93"/>
+      <c r="CD24" s="93"/>
+      <c r="CE24" s="93"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="93"/>
+      <c r="CH24" s="93"/>
+      <c r="CI24" s="93"/>
+      <c r="CJ24" s="93"/>
+      <c r="CK24" s="93"/>
+      <c r="CL24" s="87"/>
+      <c r="CM24" s="10"/>
+      <c r="CN24" s="10"/>
+      <c r="CO24" s="10"/>
+      <c r="CP24" s="10"/>
+      <c r="CQ24" s="10"/>
+      <c r="CR24" s="10"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="10"/>
+      <c r="CU24" s="10"/>
+      <c r="CV24" s="10"/>
+      <c r="CW24" s="10"/>
+      <c r="CX24" s="10"/>
+      <c r="CY24" s="10"/>
+      <c r="CZ24" s="12"/>
     </row>
-    <row r="25" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C25" s="91"/>
-      <c r="D25" s="49" t="s">
+    <row r="25" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C25" s="110"/>
+      <c r="D25" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="75">
         <v>44520</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="77">
         <v>44549</v>
       </c>
       <c r="G25" s="24"/>
@@ -3907,60 +4284,74 @@
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="38"/>
-      <c r="BD25" s="38"/>
-      <c r="BE25" s="38"/>
-      <c r="BF25" s="38"/>
-      <c r="BG25" s="38"/>
-      <c r="BH25" s="38"/>
-      <c r="BI25" s="38"/>
-      <c r="BJ25" s="38"/>
-      <c r="BK25" s="38"/>
-      <c r="BL25" s="38"/>
-      <c r="BM25" s="38"/>
-      <c r="BN25" s="38"/>
-      <c r="BO25" s="38"/>
-      <c r="BP25" s="38"/>
-      <c r="BQ25" s="38"/>
-      <c r="BR25" s="118"/>
-      <c r="BS25" s="118"/>
-      <c r="BT25" s="118"/>
-      <c r="BU25" s="118"/>
-      <c r="BV25" s="118"/>
-      <c r="BW25" s="118"/>
-      <c r="BX25" s="112"/>
-      <c r="BY25" s="27"/>
-      <c r="BZ25" s="10"/>
-      <c r="CA25" s="10"/>
-      <c r="CB25" s="10"/>
-      <c r="CC25" s="10"/>
-      <c r="CD25" s="10"/>
-      <c r="CE25" s="26"/>
+      <c r="AU25" s="79"/>
+      <c r="AV25" s="80"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="79"/>
+      <c r="BA25" s="79"/>
+      <c r="BB25" s="101"/>
+      <c r="BC25" s="102"/>
+      <c r="BD25" s="102"/>
+      <c r="BE25" s="102"/>
+      <c r="BF25" s="102"/>
+      <c r="BG25" s="102"/>
+      <c r="BH25" s="102"/>
+      <c r="BI25" s="102"/>
+      <c r="BJ25" s="102"/>
+      <c r="BK25" s="102"/>
+      <c r="BL25" s="102"/>
+      <c r="BM25" s="102"/>
+      <c r="BN25" s="102"/>
+      <c r="BO25" s="102"/>
+      <c r="BP25" s="102"/>
+      <c r="BQ25" s="102"/>
+      <c r="BR25" s="103"/>
+      <c r="BS25" s="103"/>
+      <c r="BT25" s="103"/>
+      <c r="BU25" s="103"/>
+      <c r="BV25" s="103"/>
+      <c r="BW25" s="103"/>
+      <c r="BX25" s="102"/>
+      <c r="BY25" s="103"/>
+      <c r="BZ25" s="103"/>
+      <c r="CA25" s="103"/>
+      <c r="CB25" s="103"/>
+      <c r="CC25" s="103"/>
+      <c r="CD25" s="103"/>
+      <c r="CE25" s="104"/>
       <c r="CF25" s="27"/>
       <c r="CG25" s="10"/>
       <c r="CH25" s="10"/>
       <c r="CI25" s="10"/>
       <c r="CJ25" s="10"/>
       <c r="CK25" s="10"/>
-      <c r="CL25" s="12"/>
+      <c r="CL25" s="131"/>
+      <c r="CM25" s="10"/>
+      <c r="CN25" s="10"/>
+      <c r="CO25" s="10"/>
+      <c r="CP25" s="10"/>
+      <c r="CQ25" s="10"/>
+      <c r="CR25" s="10"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="10"/>
+      <c r="CU25" s="10"/>
+      <c r="CV25" s="10"/>
+      <c r="CW25" s="10"/>
+      <c r="CX25" s="10"/>
+      <c r="CY25" s="10"/>
+      <c r="CZ25" s="12"/>
     </row>
-    <row r="26" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C26" s="91"/>
-      <c r="D26" s="49" t="s">
+    <row r="26" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C26" s="110"/>
+      <c r="D26" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="75">
         <v>44529</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="75">
         <v>44542</v>
       </c>
       <c r="G26" s="24"/>
@@ -4003,60 +4394,74 @@
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
-      <c r="AU26" s="82"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="84"/>
-      <c r="AX26" s="82"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="82"/>
-      <c r="BA26" s="82"/>
-      <c r="BB26" s="82"/>
-      <c r="BC26" s="65"/>
-      <c r="BD26" s="82"/>
-      <c r="BE26" s="82"/>
-      <c r="BF26" s="82"/>
-      <c r="BG26" s="82"/>
-      <c r="BH26" s="82"/>
-      <c r="BI26" s="82"/>
-      <c r="BJ26" s="82"/>
-      <c r="BK26" s="117"/>
-      <c r="BL26" s="118"/>
-      <c r="BM26" s="118"/>
-      <c r="BN26" s="118"/>
-      <c r="BO26" s="118"/>
-      <c r="BP26" s="118"/>
-      <c r="BQ26" s="112"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="10"/>
-      <c r="BU26" s="10"/>
-      <c r="BV26" s="10"/>
-      <c r="BW26" s="10"/>
-      <c r="BX26" s="66"/>
-      <c r="BY26" s="10"/>
-      <c r="BZ26" s="10"/>
-      <c r="CA26" s="10"/>
-      <c r="CB26" s="10"/>
-      <c r="CC26" s="10"/>
-      <c r="CD26" s="10"/>
-      <c r="CE26" s="10"/>
-      <c r="CF26" s="27"/>
-      <c r="CG26" s="10"/>
-      <c r="CH26" s="10"/>
-      <c r="CI26" s="10"/>
-      <c r="CJ26" s="10"/>
-      <c r="CK26" s="10"/>
-      <c r="CL26" s="12"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="79"/>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="79"/>
+      <c r="BG26" s="79"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="79"/>
+      <c r="BJ26" s="63"/>
+      <c r="BK26" s="105"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="62"/>
+      <c r="BP26" s="62"/>
+      <c r="BQ26" s="63"/>
+      <c r="BR26" s="108"/>
+      <c r="BS26" s="83"/>
+      <c r="BT26" s="83"/>
+      <c r="BU26" s="83"/>
+      <c r="BV26" s="83"/>
+      <c r="BW26" s="83"/>
+      <c r="BX26" s="84"/>
+      <c r="BY26" s="92"/>
+      <c r="BZ26" s="93"/>
+      <c r="CA26" s="93"/>
+      <c r="CB26" s="93"/>
+      <c r="CC26" s="93"/>
+      <c r="CD26" s="93"/>
+      <c r="CE26" s="93"/>
+      <c r="CF26" s="93"/>
+      <c r="CG26" s="93"/>
+      <c r="CH26" s="93"/>
+      <c r="CI26" s="93"/>
+      <c r="CJ26" s="93"/>
+      <c r="CK26" s="93"/>
+      <c r="CL26" s="93"/>
+      <c r="CM26" s="93"/>
+      <c r="CN26" s="93"/>
+      <c r="CO26" s="93"/>
+      <c r="CP26" s="93"/>
+      <c r="CQ26" s="93"/>
+      <c r="CR26" s="93"/>
+      <c r="CS26" s="87"/>
+      <c r="CT26" s="10"/>
+      <c r="CU26" s="10"/>
+      <c r="CV26" s="10"/>
+      <c r="CW26" s="10"/>
+      <c r="CX26" s="10"/>
+      <c r="CY26" s="10"/>
+      <c r="CZ26" s="12"/>
     </row>
-    <row r="27" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C27" s="91"/>
-      <c r="D27" s="49" t="s">
+    <row r="27" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C27" s="110"/>
+      <c r="D27" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="75">
         <v>44543</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="77">
         <v>44556</v>
       </c>
       <c r="G27" s="24"/>
@@ -4099,60 +4504,74 @@
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="82"/>
-      <c r="BE27" s="82"/>
-      <c r="BF27" s="82"/>
-      <c r="BG27" s="82"/>
-      <c r="BH27" s="82"/>
-      <c r="BI27" s="82"/>
-      <c r="BJ27" s="123"/>
-      <c r="BK27" s="64"/>
-      <c r="BL27" s="64"/>
-      <c r="BM27" s="64"/>
-      <c r="BN27" s="64"/>
-      <c r="BO27" s="64"/>
-      <c r="BP27" s="64"/>
-      <c r="BQ27" s="64"/>
-      <c r="BR27" s="37"/>
-      <c r="BS27" s="38"/>
-      <c r="BT27" s="38"/>
-      <c r="BU27" s="38"/>
-      <c r="BV27" s="38"/>
-      <c r="BW27" s="38"/>
-      <c r="BX27" s="39"/>
-      <c r="BY27" s="10"/>
-      <c r="BZ27" s="10"/>
-      <c r="CA27" s="10"/>
-      <c r="CB27" s="10"/>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-      <c r="CF27" s="27"/>
-      <c r="CG27" s="10"/>
-      <c r="CH27" s="10"/>
-      <c r="CI27" s="10"/>
-      <c r="CJ27" s="10"/>
-      <c r="CK27" s="10"/>
-      <c r="CL27" s="12"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="81"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="98"/>
+      <c r="BK27" s="79"/>
+      <c r="BL27" s="79"/>
+      <c r="BM27" s="79"/>
+      <c r="BN27" s="79"/>
+      <c r="BO27" s="79"/>
+      <c r="BP27" s="79"/>
+      <c r="BQ27" s="79"/>
+      <c r="BR27" s="106"/>
+      <c r="BS27" s="107"/>
+      <c r="BT27" s="107"/>
+      <c r="BU27" s="107"/>
+      <c r="BV27" s="107"/>
+      <c r="BW27" s="107"/>
+      <c r="BX27" s="98"/>
+      <c r="BY27" s="92"/>
+      <c r="BZ27" s="93"/>
+      <c r="CA27" s="93"/>
+      <c r="CB27" s="93"/>
+      <c r="CC27" s="93"/>
+      <c r="CD27" s="93"/>
+      <c r="CE27" s="93"/>
+      <c r="CF27" s="93"/>
+      <c r="CG27" s="93"/>
+      <c r="CH27" s="93"/>
+      <c r="CI27" s="93"/>
+      <c r="CJ27" s="93"/>
+      <c r="CK27" s="93"/>
+      <c r="CL27" s="93"/>
+      <c r="CM27" s="93"/>
+      <c r="CN27" s="93"/>
+      <c r="CO27" s="93"/>
+      <c r="CP27" s="93"/>
+      <c r="CQ27" s="93"/>
+      <c r="CR27" s="93"/>
+      <c r="CS27" s="87"/>
+      <c r="CT27" s="60"/>
+      <c r="CU27" s="60"/>
+      <c r="CV27" s="60"/>
+      <c r="CW27" s="60"/>
+      <c r="CX27" s="10"/>
+      <c r="CY27" s="10"/>
+      <c r="CZ27" s="12"/>
     </row>
-    <row r="28" spans="3:90" ht="26.4" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="49" t="s">
+    <row r="28" spans="3:104" ht="26.4" customHeight="1">
+      <c r="C28" s="110"/>
+      <c r="D28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="75">
         <v>44527</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="77">
         <v>44198</v>
       </c>
       <c r="G28" s="24"/>
@@ -4202,13 +4621,13 @@
       <c r="AY28" s="10"/>
       <c r="AZ28" s="10"/>
       <c r="BA28" s="10"/>
-      <c r="BB28" s="82"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="82"/>
-      <c r="BE28" s="82"/>
-      <c r="BF28" s="82"/>
-      <c r="BG28" s="82"/>
-      <c r="BH28" s="82"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
       <c r="BI28" s="37"/>
       <c r="BJ28" s="38"/>
       <c r="BK28" s="38"/>
@@ -4231,24 +4650,38 @@
       <c r="CB28" s="38"/>
       <c r="CC28" s="38"/>
       <c r="CD28" s="38"/>
-      <c r="CE28" s="39"/>
-      <c r="CF28" s="27"/>
-      <c r="CG28" s="10"/>
-      <c r="CH28" s="10"/>
-      <c r="CI28" s="10"/>
-      <c r="CJ28" s="10"/>
-      <c r="CK28" s="10"/>
-      <c r="CL28" s="12"/>
+      <c r="CE28" s="38"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="38"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="38"/>
+      <c r="CO28" s="38"/>
+      <c r="CP28" s="38"/>
+      <c r="CQ28" s="38"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="38"/>
+      <c r="CT28" s="38"/>
+      <c r="CU28" s="38"/>
+      <c r="CV28" s="38"/>
+      <c r="CW28" s="39"/>
+      <c r="CX28" s="10"/>
+      <c r="CY28" s="10"/>
+      <c r="CZ28" s="12"/>
     </row>
-    <row r="29" spans="3:90" ht="26.4" customHeight="1" thickBot="1">
-      <c r="C29" s="92"/>
-      <c r="D29" s="50" t="s">
+    <row r="29" spans="3:104" ht="26.4" customHeight="1" thickBot="1">
+      <c r="C29" s="111"/>
+      <c r="D29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="76">
         <v>44197</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="78">
         <v>44205</v>
       </c>
       <c r="G29" s="25"/>
@@ -4258,90 +4691,104 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="42"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="42"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="40"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="42"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="40"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="42"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="40"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="13"/>
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="42"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="40"/>
       <c r="AQ29" s="13"/>
       <c r="AR29" s="13"/>
       <c r="AS29" s="13"/>
       <c r="AT29" s="13"/>
       <c r="AU29" s="13"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="42"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="40"/>
       <c r="AX29" s="13"/>
       <c r="AY29" s="13"/>
       <c r="AZ29" s="13"/>
       <c r="BA29" s="13"/>
       <c r="BB29" s="13"/>
-      <c r="BC29" s="43"/>
-      <c r="BD29" s="42"/>
+      <c r="BC29" s="41"/>
+      <c r="BD29" s="40"/>
       <c r="BE29" s="13"/>
       <c r="BF29" s="13"/>
       <c r="BG29" s="13"/>
       <c r="BH29" s="13"/>
       <c r="BI29" s="13"/>
-      <c r="BJ29" s="43"/>
-      <c r="BK29" s="42"/>
+      <c r="BJ29" s="41"/>
+      <c r="BK29" s="40"/>
       <c r="BL29" s="13"/>
       <c r="BM29" s="13"/>
       <c r="BN29" s="13"/>
       <c r="BO29" s="13"/>
       <c r="BP29" s="13"/>
-      <c r="BQ29" s="43"/>
-      <c r="BR29" s="42"/>
+      <c r="BQ29" s="41"/>
+      <c r="BR29" s="40"/>
       <c r="BS29" s="13"/>
       <c r="BT29" s="13"/>
       <c r="BU29" s="13"/>
       <c r="BV29" s="13"/>
       <c r="BW29" s="13"/>
-      <c r="BX29" s="43"/>
+      <c r="BX29" s="41"/>
       <c r="BY29" s="13"/>
       <c r="BZ29" s="13"/>
       <c r="CA29" s="13"/>
       <c r="CB29" s="13"/>
-      <c r="CC29" s="43"/>
-      <c r="CD29" s="121"/>
-      <c r="CE29" s="122"/>
-      <c r="CF29" s="44"/>
-      <c r="CG29" s="44"/>
-      <c r="CH29" s="44"/>
-      <c r="CI29" s="44"/>
-      <c r="CJ29" s="44"/>
-      <c r="CK29" s="44"/>
-      <c r="CL29" s="85"/>
+      <c r="CC29" s="41"/>
+      <c r="CD29" s="96"/>
+      <c r="CE29" s="97"/>
+      <c r="CF29" s="42"/>
+      <c r="CG29" s="42"/>
+      <c r="CH29" s="42"/>
+      <c r="CI29" s="42"/>
+      <c r="CJ29" s="42"/>
+      <c r="CK29" s="42"/>
+      <c r="CL29" s="42"/>
+      <c r="CM29" s="42"/>
+      <c r="CN29" s="42"/>
+      <c r="CO29" s="42"/>
+      <c r="CP29" s="42"/>
+      <c r="CQ29" s="42"/>
+      <c r="CR29" s="42"/>
+      <c r="CS29" s="42"/>
+      <c r="CT29" s="42"/>
+      <c r="CU29" s="42"/>
+      <c r="CV29" s="42"/>
+      <c r="CW29" s="42"/>
+      <c r="CX29" s="42"/>
+      <c r="CY29" s="42"/>
+      <c r="CZ29" s="82"/>
     </row>
-    <row r="30" spans="3:90" ht="26.4" customHeight="1">
+    <row r="30" spans="3:104" ht="26.4" customHeight="1">
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="3:90" ht="26.4" customHeight="1"/>
-    <row r="32" spans="3:90" ht="26.4" customHeight="1"/>
+    <row r="31" spans="3:104" ht="26.4" customHeight="1"/>
+    <row r="32" spans="3:104" ht="26.4" customHeight="1"/>
     <row r="33" ht="26.4" customHeight="1"/>
     <row r="34" ht="26.4" customHeight="1"/>
     <row r="35" ht="26.4" customHeight="1"/>
@@ -4426,7 +4873,9 @@
     <row r="114" ht="26.4" customHeight="1"/>
     <row r="115" ht="26.4" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
     <mergeCell ref="BY3:CE3"/>
     <mergeCell ref="CF3:CL3"/>
     <mergeCell ref="G3:M3"/>
